--- a/VR Karting/Results/8624.xlsx
+++ b/VR Karting/Results/8624.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6660" yWindow="2880" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6660" yWindow="2880" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mini 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,10 @@
     <sheet name="PRE" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5709,7 +5711,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -5806,7 +5808,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.833725</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.7476273</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8882751</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.9261246</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8488312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9295044</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9044113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.09108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.192604</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.320114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.4485321</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.9585114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3625488</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5147247</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.5580444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.787415</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5179443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.09346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.438049</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.6194916</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.717361</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.9129791</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.6994019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.2936859</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.1170502</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.372757</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.4330597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.479797</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.89328</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.3242188</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.3580627</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.4194336</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.3579712</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.3013306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.4110413</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.2399597</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.8684692000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.714539</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.8432617</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.6240234</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.3444214</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.2821045</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.529144</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.4411011</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5260925</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.1746521</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.226532</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.4307251</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7192688</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.703186</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.1276855</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.459137</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.150543</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.2651062</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.4069519</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.2348328</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.3299541</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5465164</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.130535</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.8976517000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.767601</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.8742485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.6629639000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.196785</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.955444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.5150757</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.524689</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.5994339</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.7606964000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.993103</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.421257</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5113525</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.4876404</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.1259918</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.030563</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.610718</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.3397369</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.9108276</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.829163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.5062256000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3.807785</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.6982422</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.3747864</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.8860168</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8875427</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.289352</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.7276610999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.165817</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.5170593</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.115448</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.684021</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.9242553999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7572937</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.031036</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.9446411</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.9315186</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.7764586999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.918518</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.8125916</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.8300171</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.2953796</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.408661</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.7451782</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.014526</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.7190552</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.9973145</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>3.138885</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.487793</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.6479492</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.5674438000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.414703</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.480438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5830,732 +7406,905 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Boole</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" t="n">
         <v>0.5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>but</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" t="n">
         <v>0.5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>cheap</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" t="n">
         <v>0.5</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" t="n">
         <v>0.5</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>cooed</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.5</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>cot</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.5</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>each</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>filled</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" t="n">
         <v>0.5</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" t="n">
         <v>0.5</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>fool</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" t="n">
         <v>0.5</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>fund</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>grin</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.5</v>
       </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.5</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>hut</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>itch</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Ken</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" t="n">
         <v>0.5</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" t="n">
         <v>0.5</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>least</t>
         </is>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
         <v>0.5</v>
       </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Luke</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>man</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>0.5</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>men</t>
         </is>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" t="n">
         <v>0.5</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.5</v>
       </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>pat</t>
         </is>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>pet</t>
         </is>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.5</v>
       </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>pool</t>
         </is>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>pop</t>
         </is>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
         <v>0.5</v>
       </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" t="n">
         <v>0.5</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>pup</t>
         </is>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" t="n">
         <v>0.5</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>reach</t>
         </is>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>rich</t>
         </is>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
         <v>0.5</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>0.5</v>
       </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" t="n">
         <v>0.5</v>
       </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>shooed</t>
         </is>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
         <v>0.5</v>
       </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>should</t>
         </is>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" t="n">
         <v>0.5</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>0</v>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>sob</t>
         </is>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
         <v>0.5</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>sub</t>
         </is>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>tan</t>
         </is>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="0" t="n">
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>ten</t>
         </is>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" t="n">
         <v>0.5</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>wooed</t>
         </is>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" t="n">
         <v>0.5</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" t="n">
         <v>0.5</v>
       </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -6564,7 +8313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6576,74 +8325,74 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Session 2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>ɛ vs. æ</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>0.3928571428571428</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>ɪ vs. iː</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>ʊ vs. uː</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>ʌ vs. ɑ</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
     </row>

--- a/VR Karting/Results/8624.xlsx
+++ b/VR Karting/Results/8624.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6660" yWindow="2880" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13960" yWindow="760" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mini 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,8 +13,12 @@
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -24,7 +28,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -48,6 +52,13 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -59,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -94,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -102,6 +128,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -574,6 +603,4329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2055,10 +6407,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2077,6 +6429,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -2092,6 +6449,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -2107,6 +6469,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -2122,6 +6489,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -2137,6 +6509,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -2152,6 +6529,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -2167,6 +6549,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -2182,6 +6569,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -2197,6 +6589,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -2212,6 +6609,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -2227,6 +6629,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -2242,6 +6649,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -2257,6 +6669,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2272,6 +6689,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -2287,6 +6709,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -2302,6 +6729,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -2317,6 +6749,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -2332,6 +6769,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -2347,6 +6789,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -2362,6 +6809,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -2377,6 +6829,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -2392,6 +6849,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -2407,6 +6869,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -2422,6 +6889,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -2437,6 +6909,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -2452,6 +6929,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -2467,6 +6949,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -2482,6 +6969,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -2497,6 +6989,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -2512,6 +7009,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -2527,6 +7029,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -2542,6 +7049,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -2557,6 +7069,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -2572,6 +7089,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -2587,6 +7109,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -2602,6 +7129,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -2617,6 +7149,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -2632,6 +7169,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -2647,6 +7189,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -2662,6 +7209,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -2677,6 +7229,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -2692,6 +7249,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -2707,6 +7269,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -2722,6 +7289,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -2737,6 +7309,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -2752,6 +7329,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -2767,6 +7349,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -2782,6 +7369,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -2797,6 +7389,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -2812,6 +7409,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -2827,6 +7429,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -2842,6 +7449,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -2857,6 +7469,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -2872,6 +7489,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -2887,6 +7509,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -2902,6 +7529,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -2917,6 +7549,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -2932,6 +7569,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -2947,6 +7589,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -2962,6 +7609,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -2977,6 +7629,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -2992,6 +7649,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -3007,6 +7669,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -3022,6 +7689,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -3037,6 +7709,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -3052,6 +7729,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -3067,6 +7749,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
@@ -3082,6 +7769,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -3097,6 +7789,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -3112,6 +7809,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -3127,6 +7829,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -3142,6 +7849,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -3157,6 +7869,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -3172,6 +7889,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -3187,6 +7909,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -3202,6 +7929,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -3217,6 +7949,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -3232,6 +7969,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -3247,6 +7989,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -3262,6 +8009,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
@@ -3277,6 +8029,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
@@ -3292,6 +8049,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -3307,6 +8069,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -3322,6 +8089,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -3337,6 +8109,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -3352,6 +8129,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -3367,6 +8149,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -3382,6 +8169,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -3397,6 +8189,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -3412,6 +8209,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -3427,6 +8229,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -3442,6 +8249,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -3457,6 +8269,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -3472,6 +8289,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -3487,6 +8309,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
@@ -3502,6 +8329,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
@@ -3517,6 +8349,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -3532,6 +8369,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -3547,6 +8389,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -3562,6 +8409,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
@@ -3577,6 +8429,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -3592,6 +8449,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -3607,6 +8469,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
@@ -3622,6 +8489,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -3637,6 +8509,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -3652,6 +8529,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -3667,6 +8549,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
@@ -3682,6 +8569,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -3697,6 +8589,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -3712,6 +8609,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -3727,6 +8629,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
@@ -3742,6 +8649,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
@@ -3757,6 +8669,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
@@ -3772,6 +8689,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
@@ -3787,6 +8709,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
@@ -3802,6 +8729,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
@@ -3817,6 +8749,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
@@ -3832,6 +8769,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
@@ -3847,6 +8789,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
@@ -3862,6 +8809,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
@@ -3877,6 +8829,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
@@ -3892,6 +8849,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
@@ -3907,6 +8869,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="inlineStr">
@@ -3922,6 +8889,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -3937,6 +8909,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
@@ -3952,6 +8929,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
@@ -3967,6 +8949,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
@@ -3982,6 +8969,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
@@ -3997,6 +8989,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
@@ -4012,6 +9009,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
@@ -4027,6 +9029,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="inlineStr">
@@ -4042,6 +9049,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
@@ -4057,6 +9069,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
@@ -4072,6 +9089,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
@@ -4087,6 +9109,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -4102,6 +9129,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -4117,6 +9149,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
@@ -4132,6 +9169,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -4147,6 +9189,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
@@ -4162,6 +9209,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="inlineStr">
@@ -4177,6 +9229,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="inlineStr">
@@ -4192,6 +9249,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
@@ -4207,6 +9269,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -4220,6 +9287,11 @@
       <c r="C144" s="0" t="inlineStr">
         <is>
           <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
         </is>
       </c>
     </row>
@@ -7285,7 +12357,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7382,934 +12454,1472 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.3916626</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.062424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.088181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.635406</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9776154</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.451477</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.004882813</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.841019</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.523926</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.1980591</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8348694</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.3160706</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.4391174</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.3453827</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.7817688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.6760559</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.4726105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.238449</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.3464355</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.2444153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.2026978</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.3372192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.4163818</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.3983765</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.2110596</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8122253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.44809</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.3999329</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.4309082</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.2949524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.414948</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5261841</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.787384</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9179382</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.3721924</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5036926</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.370239</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.1048889</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>3.128723</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.975128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.1993408</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.4478455</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.0369873</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.8557739</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.3522949</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.7701721</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.231262</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.380524</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2.35556</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.5179138</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.274475</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.3484802</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.433685</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.4555664</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.260254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.383606</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.175238</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.134993</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.4661369</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.3382835</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.3144684</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.271488</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.07386017</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.03185272</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.3331833</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.4950256</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.396492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.2684021</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.856812</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.2063141</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.3296432</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.2098389</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.4332275</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.6969452</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.6246796</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.949905</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.0606842</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.2280121</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.8500214</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.077225</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.143723</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.231583</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.770828</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.3223572</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.2767487</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.1647186</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.1743317</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.4065857</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>-0.0184021</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.7012329</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.3496704</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.571228</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.5598145</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.135101</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.107574</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.124115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6682129</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.4816284</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.849304</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.7206726</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.2139282</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.8447571</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.1925354</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.6739807</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.3363953</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.1897888</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.2176819</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.98999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.6351624</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.9315491</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.929504</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5</v>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.4359741</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8319,84 +13929,95 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.6785714285714286</v>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.6428571428571429</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.6785714285714286</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.6785714285714286</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/8624.xlsx
+++ b/VR Karting/Results/8624.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13960" yWindow="760" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16800" yWindow="760" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="9" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mini 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,9 +16,17 @@
     <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Contrast Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -52,13 +60,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -70,27 +71,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -120,7 +106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,9 +114,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -611,7 +594,7 @@
   </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+    <sheetView topLeftCell="A137" workbookViewId="0">
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
@@ -3508,875 +3491,597 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.8956299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2684631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>1.249603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0.7864075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5</v>
+        <v>1.454163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2745056</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0.4162292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>1.057404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0.0953064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0.2431946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0.3510742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
+        <v>0.4544373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.5</v>
+        <v>1.809937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
+        <v>1.365387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
+        <v>0.2998352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
+        <v>2.333038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.5</v>
+        <v>1.654724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.5</v>
+        <v>1.178162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>0.6416016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
+        <v>3.22113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>0.3614502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0.1763611</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>0.6141968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8040161</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
+        <v>1.848755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
+        <v>1.942719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.5</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
+        <v>0.5383301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
+        <v>0.9311523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>0.3453674</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>0.7674866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
+        <v>0.3844299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
+        <v>1.365021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0.5</v>
+        <v>1.059326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>2.468658</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>0.5024109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.5</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
+        <v>0.5335693</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>3.210785</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
+        <v>0.6101074</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>0.8377686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
+        <v>0.6542664</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
+        <v>0.704834</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.5</v>
+        <v>0.5029907</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
+        <v>0.3716431</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
+        <v>1.868164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
+        <v>0.3735962</v>
       </c>
     </row>
     <row r="46">
@@ -4385,230 +4090,873 @@
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
+        <v>3.382141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
+        <v>0.8500977</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>1.879272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
+        <v>0.9981689</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
+        <v>0.5838622999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
+        <v>0.6049805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
+        <v>0.6551514000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7425537</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
+        <v>0.8651733</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>0.5</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7407837</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
+        <v>1.165955</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7220039</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5877934</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.043488</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.538776</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.386879</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.3734131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.678574</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6282654</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.435501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.799683</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.404808</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.005348</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.4041901</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>4.021729</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.8820572</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.438751</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.269287</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.6207886</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.864014</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.6703339</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.6912842</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.575714</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.47052</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.347672</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.193283</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.278687</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.240219</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.733521</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.967804</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.5440979</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.191879</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.6477051</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.142792</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.314301</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.4854431</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2.143829</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.7372742</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.84848</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.4065552</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.208405</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.745575</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.5142822</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.302551</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.03183</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.9014586999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.033966</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.578339</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.9480896</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.8516846</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.1665039</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.951416</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.8380737</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.971893</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.145355</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.9473877000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4618,119 +4966,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8214285714285714</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8928571428571429</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8214285714285714</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4740,7 +5065,4001 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9763241</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.236515</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.4417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.6607513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9071998999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.2962914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.543175</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.291023</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5569305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.4103165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.2607651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.70784</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.2273941</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.602951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3.051437</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.6813049</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.186447</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5689392</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3.784454</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.657028</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.4960022</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.357819</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.364899</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9057159</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.519104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.7182770000000001</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5188293</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5233002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5676117000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2.127441</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.3090363</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.4811096</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.748077</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.973236</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.082306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.15976</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.420105</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.6719666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.270721</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.779816</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.397583</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.000732</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.434906</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.4928284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5581055</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.702423</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.162506</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9311218</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5093993999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>3.112946</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.7415465999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.052399</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.975616</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.7609253</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.6101379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.094696</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.7481327</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.100771</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.8837357</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2.704983</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.5731544</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.412647</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.563301</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7829971</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.9829025</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.93396</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.4185867</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.110626</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.9000320000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.112617</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.2481384</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.560379</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.650879</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.4494171</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.85466</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>4.204483</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.008636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.3817902</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.317337</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.9232178</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.7415465999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.080093</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.4195709</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.656555</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.6992035</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.5283356</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.6390686</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.4842072</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.480545</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.3695679</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.917206</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.548492</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.5234985</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.5492859</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.962616</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.12146</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.7015076</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.9104919</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.4266968</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.415283</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.4732056</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.206818</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.7914734</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.721619</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>3.671021</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.8735352</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6278076</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.55191</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.2037659</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7373657</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3.02948</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.643707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.8484745</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.143066</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3.807686</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.7222137</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.253654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.1946259</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.343613</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.3355179</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.4621201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.4139862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.7545013</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.3729782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.7680359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.134636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.897354</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.3710938</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.617218</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.9260712</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.061234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.3840485</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.162338</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.942184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.9029083</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.2597656</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.13385</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.2433472</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.4828186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5605164</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.4032593</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.34993</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.619553</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.7777863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.407623</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.193268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.9480896</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.151337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.885986</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.3237915</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.6881409000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.33728</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.4456482</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.7468872</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.31311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.5552368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.8382263</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.8445435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2.431152</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.7431946</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.6746826</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.9582214</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>3.315948</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.265625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.2846375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.8599548</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.8630981</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5825195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.4893379</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9275284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.575394</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.1751251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.564743</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.267418</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.1845245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.838402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5164795</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.163124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.732101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5033112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.870285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.4889832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.076935</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.519791</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.439621</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5544739</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.587326</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.449371</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.8010864</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.287003</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.256744</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.8467407</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.4716644</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8246154999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5638733</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.4391479</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.6136169</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.13739</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.3423157</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.9004822</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.8083191</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.8562317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.8221741</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.8692322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.517273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.061523</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5489502000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8233336999999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.470245</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3.106873</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.820801</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.426727</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.3833618</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.6694641</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.5217896</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5764465</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.8345337</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.359497</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.496429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.570587</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.306519</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.5279236</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.157379</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.469818</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.9487686</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.432831</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.28051</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.31797</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.7176207999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>4.079597</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.351494</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>3.088135</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.5921554999999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.52327</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7547607</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.4672852</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3.101944</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.367783</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.844894</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.913727</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.9836884</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.227722</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.607391</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.94841</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.054291</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.183823</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.8559265</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.486145</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.9289246</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.37117</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3.087051</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.8696899</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.846954</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.4889221</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.5539551</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.209167</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.4527283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.4949646</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.257568</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>3.744751</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.8894957999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.9283447</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.631958</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.4702759</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.4483032</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.5371704</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.6225586</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.2412415</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.8299866</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.8639526</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8644409</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.2144775</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.6418762</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.839752</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.102844</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.6331787</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.5727539</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.5186157</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.298981</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.283997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4749,176 +9068,1786 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>MID</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bait</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bit</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>Boole</t>
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>had</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>head</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>heed</t>
+          <t>can</t>
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>hid</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>hod</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>hood</t>
+          <t>cooed</t>
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>hud</t>
+          <t>cot</t>
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>who'd</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6401,6 +12330,388 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/VR Karting/Results/8624.xlsx
+++ b/VR Karting/Results/8624.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16800" yWindow="760" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="9" activeTab="17" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6100" yWindow="1280" windowWidth="17680" windowHeight="17440" tabRatio="600" firstSheet="10" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mini 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Contrast Accuracies" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="POST" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -55,7 +56,6 @@
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
@@ -594,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8962,7 +8962,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -9059,1799 +9059,2896 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Session 8</t>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0.5</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0.5</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0.5</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0.5</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0.5</v>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0.5</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>1</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0.5</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0.5</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>1</v>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>1</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>1</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>1</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>1</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>1</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>1</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>1</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>1</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>1</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>0.5</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>0.5</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>1</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0.5</v>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>1</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>1</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>1</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>1</v>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>1</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12336,6 +13433,1808 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12520,7 +15419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
